--- a/Crawler/accenture/accenture_topic.xlsx
+++ b/Crawler/accenture/accenture_topic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
   <si>
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #0</t>
   </si>
@@ -46,6 +46,180 @@
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #9</t>
   </si>
   <si>
+    <t>0                       industry</t>
+  </si>
+  <si>
+    <t>1                          value</t>
+  </si>
+  <si>
+    <t>2                      financial</t>
+  </si>
+  <si>
+    <t>3                         skills</t>
+  </si>
+  <si>
+    <t>4                   technologies</t>
+  </si>
+  <si>
+    <t>5                        leading</t>
+  </si>
+  <si>
+    <t>6                          works</t>
+  </si>
+  <si>
+    <t>7                         create</t>
+  </si>
+  <si>
+    <t>8                        improve</t>
+  </si>
+  <si>
+    <t>9                         growth</t>
+  </si>
+  <si>
+    <t>10                      strategy</t>
+  </si>
+  <si>
+    <t>11                     companies</t>
+  </si>
+  <si>
+    <t>12                       digital</t>
+  </si>
+  <si>
+    <t>13                           new</t>
+  </si>
+  <si>
+    <t>14                    innovation</t>
+  </si>
+  <si>
+    <t>0                          value</t>
+  </si>
+  <si>
+    <t>1                        improve</t>
+  </si>
+  <si>
+    <t>2                           risk</t>
+  </si>
+  <si>
+    <t>3                        process</t>
+  </si>
+  <si>
+    <t>4                           high</t>
+  </si>
+  <si>
+    <t>5                          chain</t>
+  </si>
+  <si>
+    <t>6                        finance</t>
+  </si>
+  <si>
+    <t>7                       industry</t>
+  </si>
+  <si>
+    <t>8                         supply</t>
+  </si>
+  <si>
+    <t>9                      companies</t>
+  </si>
+  <si>
+    <t>10                   outsourcing</t>
+  </si>
+  <si>
+    <t>11                     analytics</t>
+  </si>
+  <si>
+    <t>12                          data</t>
+  </si>
+  <si>
+    <t>13                   performance</t>
+  </si>
+  <si>
+    <t>14                    management</t>
+  </si>
+  <si>
+    <t>0                        largest</t>
+  </si>
+  <si>
+    <t>1                       strategy</t>
+  </si>
+  <si>
+    <t>2                      solutions</t>
+  </si>
+  <si>
+    <t>3                      connected</t>
+  </si>
+  <si>
+    <t>4                          media</t>
+  </si>
+  <si>
+    <t>6                            new</t>
+  </si>
+  <si>
+    <t>8                         design</t>
+  </si>
+  <si>
+    <t>9                    experiences</t>
+  </si>
+  <si>
+    <t>10                    experience</t>
+  </si>
+  <si>
+    <t>11                   interactive</t>
+  </si>
+  <si>
+    <t>12                     marketing</t>
+  </si>
+  <si>
+    <t>13                      customer</t>
+  </si>
+  <si>
+    <t>14                       digital</t>
+  </si>
+  <si>
+    <t>0                  approximately</t>
+  </si>
+  <si>
+    <t>1                          share</t>
+  </si>
+  <si>
+    <t>2                         canada</t>
+  </si>
+  <si>
+    <t>3                          ended</t>
+  </si>
+  <si>
+    <t>4                      financial</t>
+  </si>
+  <si>
+    <t>5                            www</t>
+  </si>
+  <si>
+    <t>6                             31</t>
+  </si>
+  <si>
+    <t>7                        quarter</t>
+  </si>
+  <si>
+    <t>8                        percent</t>
+  </si>
+  <si>
+    <t>9                        billion</t>
+  </si>
+  <si>
+    <t>10                      revenues</t>
+  </si>
+  <si>
+    <t>11                       million</t>
+  </si>
+  <si>
+    <t>12                           net</t>
+  </si>
+  <si>
+    <t>13                        fiscal</t>
+  </si>
+  <si>
+    <t>14                          year</t>
+  </si>
+  <si>
     <t>0                     businesses</t>
   </si>
   <si>
@@ -64,16 +238,16 @@
     <t>5                      financial</t>
   </si>
   <si>
-    <t>6                        forward</t>
-  </si>
-  <si>
-    <t>7                        looking</t>
-  </si>
-  <si>
-    <t>8                        changes</t>
-  </si>
-  <si>
-    <t>9                      solutions</t>
+    <t>6                      solutions</t>
+  </si>
+  <si>
+    <t>7                        forward</t>
+  </si>
+  <si>
+    <t>8                        looking</t>
+  </si>
+  <si>
+    <t>9                        changes</t>
   </si>
   <si>
     <t>10                    materially</t>
@@ -91,400 +265,217 @@
     <t>14                       results</t>
   </si>
   <si>
-    <t>0                           data</t>
-  </si>
-  <si>
-    <t>1                      customers</t>
-  </si>
-  <si>
-    <t>2                   technologies</t>
-  </si>
-  <si>
-    <t>3                       solution</t>
-  </si>
-  <si>
-    <t>4                           york</t>
-  </si>
-  <si>
-    <t>5                        leading</t>
-  </si>
-  <si>
-    <t>6                       industry</t>
-  </si>
-  <si>
-    <t>7                        partner</t>
-  </si>
-  <si>
-    <t>8                       platform</t>
-  </si>
-  <si>
-    <t>9                      companies</t>
-  </si>
-  <si>
-    <t>10                     financial</t>
-  </si>
-  <si>
-    <t>11                     solutions</t>
-  </si>
-  <si>
-    <t>12                    innovation</t>
-  </si>
-  <si>
-    <t>13                           new</t>
+    <t>0                           year</t>
+  </si>
+  <si>
+    <t>1                       consumer</t>
+  </si>
+  <si>
+    <t>2                            use</t>
+  </si>
+  <si>
+    <t>3                     executives</t>
+  </si>
+  <si>
+    <t>4                      according</t>
+  </si>
+  <si>
+    <t>5                            new</t>
+  </si>
+  <si>
+    <t>6                           half</t>
+  </si>
+  <si>
+    <t>7                         online</t>
+  </si>
+  <si>
+    <t>8                       research</t>
+  </si>
+  <si>
+    <t>9                          study</t>
+  </si>
+  <si>
+    <t>10                     companies</t>
+  </si>
+  <si>
+    <t>11                     consumers</t>
+  </si>
+  <si>
+    <t>12                   respondents</t>
+  </si>
+  <si>
+    <t>13                        survey</t>
+  </si>
+  <si>
+    <t>14                       percent</t>
+  </si>
+  <si>
+    <t>0                            new</t>
+  </si>
+  <si>
+    <t>1                       research</t>
+  </si>
+  <si>
+    <t>2                       training</t>
+  </si>
+  <si>
+    <t>3                    governments</t>
+  </si>
+  <si>
+    <t>4                           year</t>
+  </si>
+  <si>
+    <t>5                        program</t>
+  </si>
+  <si>
+    <t>6                         skills</t>
+  </si>
+  <si>
+    <t>7                    information</t>
+  </si>
+  <si>
+    <t>8                           work</t>
+  </si>
+  <si>
+    <t>9                        support</t>
+  </si>
+  <si>
+    <t>10                       service</t>
+  </si>
+  <si>
+    <t>11                    management</t>
+  </si>
+  <si>
+    <t>12                    government</t>
+  </si>
+  <si>
+    <t>13                        public</t>
+  </si>
+  <si>
+    <t>14                        health</t>
+  </si>
+  <si>
+    <t>0                       research</t>
+  </si>
+  <si>
+    <t>1                     experience</t>
+  </si>
+  <si>
+    <t>2                           life</t>
+  </si>
+  <si>
+    <t>3                            www</t>
+  </si>
+  <si>
+    <t>4                       platform</t>
+  </si>
+  <si>
+    <t>5                       industry</t>
+  </si>
+  <si>
+    <t>6                           high</t>
+  </si>
+  <si>
+    <t>7                      companies</t>
+  </si>
+  <si>
+    <t>8                       customer</t>
+  </si>
+  <si>
+    <t>9                   capabilities</t>
+  </si>
+  <si>
+    <t>10                           new</t>
+  </si>
+  <si>
+    <t>12                       service</t>
+  </si>
+  <si>
+    <t>13                     insurance</t>
+  </si>
+  <si>
+    <t>14                      software</t>
+  </si>
+  <si>
+    <t>0                       alliance</t>
+  </si>
+  <si>
+    <t>1                        systems</t>
+  </si>
+  <si>
+    <t>2                         market</t>
+  </si>
+  <si>
+    <t>3                       industry</t>
+  </si>
+  <si>
+    <t>4                        partner</t>
+  </si>
+  <si>
+    <t>5                    information</t>
+  </si>
+  <si>
+    <t>6                       solution</t>
+  </si>
+  <si>
+    <t>7                      customers</t>
+  </si>
+  <si>
+    <t>8                        leading</t>
+  </si>
+  <si>
+    <t>10                         group</t>
+  </si>
+  <si>
+    <t>11                     financial</t>
+  </si>
+  <si>
+    <t>12                    management</t>
+  </si>
+  <si>
+    <t>14                     solutions</t>
+  </si>
+  <si>
+    <t>0                       security</t>
+  </si>
+  <si>
+    <t>2                     experience</t>
+  </si>
+  <si>
+    <t>3                         report</t>
+  </si>
+  <si>
+    <t>4                       industry</t>
+  </si>
+  <si>
+    <t>5                       platform</t>
+  </si>
+  <si>
+    <t>6                        improve</t>
+  </si>
+  <si>
+    <t>7                     innovation</t>
+  </si>
+  <si>
+    <t>8                        service</t>
+  </si>
+  <si>
+    <t>9                          value</t>
+  </si>
+  <si>
+    <t>10                  capabilities</t>
+  </si>
+  <si>
+    <t>11                    operations</t>
+  </si>
+  <si>
+    <t>12                     solutions</t>
+  </si>
+  <si>
+    <t>13                       digital</t>
   </si>
   <si>
     <t>14                         cloud</t>
-  </si>
-  <si>
-    <t>0                        process</t>
-  </si>
-  <si>
-    <t>1                            www</t>
-  </si>
-  <si>
-    <t>2                      insurance</t>
-  </si>
-  <si>
-    <t>3                        systems</t>
-  </si>
-  <si>
-    <t>4                           high</t>
-  </si>
-  <si>
-    <t>5                      companies</t>
-  </si>
-  <si>
-    <t>6                            new</t>
-  </si>
-  <si>
-    <t>7                      solutions</t>
-  </si>
-  <si>
-    <t>8                       industry</t>
-  </si>
-  <si>
-    <t>9                   capabilities</t>
-  </si>
-  <si>
-    <t>10                   performance</t>
-  </si>
-  <si>
-    <t>11                       service</t>
-  </si>
-  <si>
-    <t>12                   outsourcing</t>
-  </si>
-  <si>
-    <t>13                      software</t>
-  </si>
-  <si>
-    <t>14                    management</t>
-  </si>
-  <si>
-    <t>0                         online</t>
-  </si>
-  <si>
-    <t>1                           york</t>
-  </si>
-  <si>
-    <t>2                           june</t>
-  </si>
-  <si>
-    <t>3                            acn</t>
-  </si>
-  <si>
-    <t>4                           nyse</t>
-  </si>
-  <si>
-    <t>5                      available</t>
-  </si>
-  <si>
-    <t>6                        results</t>
-  </si>
-  <si>
-    <t>7                         states</t>
-  </si>
-  <si>
-    <t>8                  approximately</t>
-  </si>
-  <si>
-    <t>9                         united</t>
-  </si>
-  <si>
-    <t>10                        fiscal</t>
-  </si>
-  <si>
-    <t>11                        canada</t>
-  </si>
-  <si>
-    <t>12                           www</t>
-  </si>
-  <si>
-    <t>13                          year</t>
-  </si>
-  <si>
-    <t>14                        energy</t>
-  </si>
-  <si>
-    <t>0                        network</t>
-  </si>
-  <si>
-    <t>1                        largest</t>
-  </si>
-  <si>
-    <t>2                       industry</t>
-  </si>
-  <si>
-    <t>3                        leading</t>
-  </si>
-  <si>
-    <t>4                         create</t>
-  </si>
-  <si>
-    <t>5                            new</t>
-  </si>
-  <si>
-    <t>6                     experience</t>
-  </si>
-  <si>
-    <t>7                         report</t>
-  </si>
-  <si>
-    <t>8                          works</t>
-  </si>
-  <si>
-    <t>9                          value</t>
-  </si>
-  <si>
-    <t>10                       improve</t>
-  </si>
-  <si>
-    <t>11                    innovation</t>
-  </si>
-  <si>
-    <t>12                    operations</t>
-  </si>
-  <si>
-    <t>13                      strategy</t>
-  </si>
-  <si>
-    <t>14                       digital</t>
-  </si>
-  <si>
-    <t>0                         retail</t>
-  </si>
-  <si>
-    <t>1                    interactive</t>
-  </si>
-  <si>
-    <t>2                      companies</t>
-  </si>
-  <si>
-    <t>3                            new</t>
-  </si>
-  <si>
-    <t>4                       consumer</t>
-  </si>
-  <si>
-    <t>5                          sales</t>
-  </si>
-  <si>
-    <t>6                        service</t>
-  </si>
-  <si>
-    <t>7                         mobile</t>
-  </si>
-  <si>
-    <t>8                     experience</t>
-  </si>
-  <si>
-    <t>9                           data</t>
-  </si>
-  <si>
-    <t>10                     customers</t>
-  </si>
-  <si>
-    <t>11                     analytics</t>
-  </si>
-  <si>
-    <t>12                     marketing</t>
-  </si>
-  <si>
-    <t>13                       digital</t>
-  </si>
-  <si>
-    <t>14                      customer</t>
-  </si>
-  <si>
-    <t>0                           work</t>
-  </si>
-  <si>
-    <t>1                    performance</t>
-  </si>
-  <si>
-    <t>2                        support</t>
-  </si>
-  <si>
-    <t>3                  organizations</t>
-  </si>
-  <si>
-    <t>4                       research</t>
-  </si>
-  <si>
-    <t>5                         sector</t>
-  </si>
-  <si>
-    <t>6                           year</t>
-  </si>
-  <si>
-    <t>7                    governments</t>
-  </si>
-  <si>
-    <t>8                          state</t>
-  </si>
-  <si>
-    <t>9                     management</t>
-  </si>
-  <si>
-    <t>10                   information</t>
-  </si>
-  <si>
-    <t>12                    government</t>
-  </si>
-  <si>
-    <t>13                        public</t>
-  </si>
-  <si>
-    <t>14                        health</t>
-  </si>
-  <si>
-    <t>0                     leadership</t>
-  </si>
-  <si>
-    <t>3                         talent</t>
-  </si>
-  <si>
-    <t>4                      workforce</t>
-  </si>
-  <si>
-    <t>5                    development</t>
-  </si>
-  <si>
-    <t>6                      corporate</t>
-  </si>
-  <si>
-    <t>7                        program</t>
-  </si>
-  <si>
-    <t>8                      companies</t>
-  </si>
-  <si>
-    <t>9                            new</t>
-  </si>
-  <si>
-    <t>10                     employees</t>
-  </si>
-  <si>
-    <t>11                      training</t>
-  </si>
-  <si>
-    <t>12                          year</t>
-  </si>
-  <si>
-    <t>13                          work</t>
-  </si>
-  <si>
-    <t>14                        skills</t>
-  </si>
-  <si>
-    <t>0                             11</t>
-  </si>
-  <si>
-    <t>1                          ended</t>
-  </si>
-  <si>
-    <t>2                       increase</t>
-  </si>
-  <si>
-    <t>3                             31</t>
-  </si>
-  <si>
-    <t>4                      operating</t>
-  </si>
-  <si>
-    <t>5                          share</t>
-  </si>
-  <si>
-    <t>6                      financial</t>
-  </si>
-  <si>
-    <t>7                        quarter</t>
-  </si>
-  <si>
-    <t>8                           year</t>
-  </si>
-  <si>
-    <t>9                         fiscal</t>
-  </si>
-  <si>
-    <t>10                      revenues</t>
-  </si>
-  <si>
-    <t>11                       percent</t>
-  </si>
-  <si>
-    <t>12                       billion</t>
-  </si>
-  <si>
-    <t>13                       million</t>
-  </si>
-  <si>
-    <t>14                           net</t>
-  </si>
-  <si>
-    <t>0                       surveyed</t>
-  </si>
-  <si>
-    <t>1                            use</t>
-  </si>
-  <si>
-    <t>2                           year</t>
-  </si>
-  <si>
-    <t>3                         online</t>
-  </si>
-  <si>
-    <t>4                           half</t>
-  </si>
-  <si>
-    <t>5                      according</t>
-  </si>
-  <si>
-    <t>6                       research</t>
-  </si>
-  <si>
-    <t>7                            new</t>
-  </si>
-  <si>
-    <t>8                          study</t>
-  </si>
-  <si>
-    <t>9                     executives</t>
-  </si>
-  <si>
-    <t>10                     consumers</t>
-  </si>
-  <si>
-    <t>11                     companies</t>
-  </si>
-  <si>
-    <t>12                   respondents</t>
-  </si>
-  <si>
-    <t>13                        survey</t>
-  </si>
-  <si>
-    <t>14                       percent</t>
   </si>
 </sst>
 </file>
@@ -891,25 +882,25 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
         <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -923,25 +914,25 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
         <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -955,25 +946,25 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
         <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -987,25 +978,25 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1019,25 +1010,25 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I6" t="s">
         <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1048,28 +1039,28 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
         <v>132</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1080,28 +1071,28 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
         <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1112,28 +1103,28 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
         <v>134</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1144,28 +1135,28 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I10" t="s">
         <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1176,28 +1167,28 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1208,28 +1199,28 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1240,28 +1231,28 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1272,28 +1263,28 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
         <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1304,28 +1295,28 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
         <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1336,28 +1327,28 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
         <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
